--- a/Career/job sites.xlsx
+++ b/Career/job sites.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>uatalents.com </t>
   </si>
@@ -123,6 +123,11 @@
     <t>Зарегистрировался, 
 просмотрел первые вакансии,
 сделал 2 отклика</t>
+  </si>
+  <si>
+    <t>Зарегистрировался, 
+просмотрел первые вакансии,
+сделал первые отклики</t>
   </si>
 </sst>
 </file>
@@ -537,7 +542,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,14 +684,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>17</v>
